--- a/IC_Solar/Shading_LUT/Generic_8x8/pctExposedLUT_module_11.xlsx
+++ b/IC_Solar/Shading_LUT/Generic_8x8/pctExposedLUT_module_11.xlsx
@@ -33,8 +33,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -62,8 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,11 +355,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="26" max="26" width="8.88671875" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -428,7 +440,7 @@
       <c r="Y1">
         <v>-3</v>
       </c>
-      <c r="Z1">
+      <c r="Z1" s="1">
         <v>0</v>
       </c>
       <c r="AA1">
@@ -580,7 +592,7 @@
       <c r="Y2">
         <v>0.33620700000000003</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="1">
         <v>0.33620700000000003</v>
       </c>
       <c r="AA2">
@@ -732,7 +744,7 @@
       <c r="Y3">
         <v>0.37931000000000004</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="1">
         <v>0.37931000000000004</v>
       </c>
       <c r="AA3">
@@ -884,7 +896,7 @@
       <c r="Y4">
         <v>0.43103400000000003</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="1">
         <v>0.43103400000000003</v>
       </c>
       <c r="AA4">
@@ -1036,7 +1048,7 @@
       <c r="Y5">
         <v>0.5</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="1">
         <v>0.5</v>
       </c>
       <c r="AA5">
@@ -1188,7 +1200,7 @@
       <c r="Y6">
         <v>0.543103</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="1">
         <v>0.543103</v>
       </c>
       <c r="AA6">
@@ -1340,7 +1352,7 @@
       <c r="Y7">
         <v>0.58620699999999992</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="1">
         <v>0.58620699999999992</v>
       </c>
       <c r="AA7">
@@ -1492,7 +1504,7 @@
       <c r="Y8">
         <v>0.62068999999999996</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="1">
         <v>0.62068999999999996</v>
       </c>
       <c r="AA8">
@@ -1644,7 +1656,7 @@
       <c r="Y9">
         <v>0.66379300000000008</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="1">
         <v>0.66379300000000008</v>
       </c>
       <c r="AA9">
@@ -1796,7 +1808,7 @@
       <c r="Y10">
         <v>0.71551699999999996</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="1">
         <v>0.71551699999999996</v>
       </c>
       <c r="AA10">
@@ -1948,7 +1960,7 @@
       <c r="Y11">
         <v>0.75862099999999999</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="1">
         <v>0.75862099999999999</v>
       </c>
       <c r="AA11">
@@ -2100,7 +2112,7 @@
       <c r="Y12">
         <v>0.793103</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="1">
         <v>0.793103</v>
       </c>
       <c r="AA12">
@@ -2252,7 +2264,7 @@
       <c r="Y13">
         <v>0.82758599999999993</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="1">
         <v>0.82758599999999993</v>
       </c>
       <c r="AA13">
@@ -2404,7 +2416,7 @@
       <c r="Y14">
         <v>0.87068999999999996</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="1">
         <v>0.87068999999999996</v>
       </c>
       <c r="AA14">
@@ -2556,7 +2568,7 @@
       <c r="Y15">
         <v>0.91379299999999997</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="1">
         <v>0.91379299999999997</v>
       </c>
       <c r="AA15">
@@ -2708,7 +2720,7 @@
       <c r="Y16">
         <v>0.93965500000000002</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="1">
         <v>0.93965500000000002</v>
       </c>
       <c r="AA16">
@@ -2860,7 +2872,7 @@
       <c r="Y17">
         <v>0.956897</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="1">
         <v>0.956897</v>
       </c>
       <c r="AA17">
@@ -3012,7 +3024,7 @@
       <c r="Y18">
         <v>1</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="1">
         <v>1</v>
       </c>
       <c r="AA18">
@@ -3164,7 +3176,7 @@
       <c r="Y19">
         <v>1</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="1">
         <v>1</v>
       </c>
       <c r="AA19">
@@ -3316,7 +3328,7 @@
       <c r="Y20">
         <v>1</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="1">
         <v>1</v>
       </c>
       <c r="AA20">
@@ -3468,7 +3480,7 @@
       <c r="Y21">
         <v>1</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="1">
         <v>1</v>
       </c>
       <c r="AA21">
@@ -3620,7 +3632,7 @@
       <c r="Y22">
         <v>1</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="1">
         <v>1</v>
       </c>
       <c r="AA22">
@@ -3772,7 +3784,7 @@
       <c r="Y23">
         <v>1</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="1">
         <v>1</v>
       </c>
       <c r="AA23">
@@ -3924,7 +3936,7 @@
       <c r="Y24">
         <v>1</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="1">
         <v>1</v>
       </c>
       <c r="AA24">
@@ -4076,7 +4088,7 @@
       <c r="Y25">
         <v>1</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="1">
         <v>1</v>
       </c>
       <c r="AA25">
@@ -4152,155 +4164,155 @@
         <v>0.41379299999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
+    <row r="26" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
         <v>8.6207000000000034E-2</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>0.12931000000000004</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>0.206897</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>0.25</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>0.31896599999999997</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <v>0.37931000000000004</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <v>0.43965500000000002</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>0.5</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="1">
         <v>0.57758599999999993</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="1">
         <v>0.62068999999999996</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="1">
         <v>0.69827600000000001</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="1">
         <v>0.75</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="1">
         <v>0.81034499999999998</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="1">
         <v>0.87068999999999996</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="1">
         <v>0.92241399999999996</v>
       </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
-        <v>1</v>
-      </c>
-      <c r="Y26">
-        <v>1</v>
-      </c>
-      <c r="Z26">
-        <v>1</v>
-      </c>
-      <c r="AA26">
-        <v>1</v>
-      </c>
-      <c r="AB26">
-        <v>1</v>
-      </c>
-      <c r="AC26">
-        <v>1</v>
-      </c>
-      <c r="AD26">
-        <v>1</v>
-      </c>
-      <c r="AE26">
-        <v>1</v>
-      </c>
-      <c r="AF26">
-        <v>1</v>
-      </c>
-      <c r="AG26">
-        <v>1</v>
-      </c>
-      <c r="AH26">
-        <v>1</v>
-      </c>
-      <c r="AI26">
-        <v>1</v>
-      </c>
-      <c r="AJ26">
-        <v>1</v>
-      </c>
-      <c r="AK26">
-        <v>1</v>
-      </c>
-      <c r="AL26">
+      <c r="S26" s="1">
+        <v>1</v>
+      </c>
+      <c r="T26" s="1">
+        <v>1</v>
+      </c>
+      <c r="U26" s="1">
+        <v>1</v>
+      </c>
+      <c r="V26" s="1">
+        <v>1</v>
+      </c>
+      <c r="W26" s="1">
+        <v>1</v>
+      </c>
+      <c r="X26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="1">
         <v>0.956897</v>
       </c>
-      <c r="AM26">
+      <c r="AM26" s="1">
         <v>0.91379299999999997</v>
       </c>
-      <c r="AN26">
+      <c r="AN26" s="1">
         <v>0.87068999999999996</v>
       </c>
-      <c r="AO26">
+      <c r="AO26" s="1">
         <v>0.82758599999999993</v>
       </c>
-      <c r="AP26">
+      <c r="AP26" s="1">
         <v>0.793103</v>
       </c>
-      <c r="AQ26">
+      <c r="AQ26" s="1">
         <v>0.75</v>
       </c>
-      <c r="AR26">
+      <c r="AR26" s="1">
         <v>0.706897</v>
       </c>
-      <c r="AS26">
+      <c r="AS26" s="1">
         <v>0.66379300000000008</v>
       </c>
-      <c r="AT26">
+      <c r="AT26" s="1">
         <v>0.59482800000000002</v>
       </c>
-      <c r="AU26">
+      <c r="AU26" s="1">
         <v>0.543103</v>
       </c>
-      <c r="AV26">
+      <c r="AV26" s="1">
         <v>0.5</v>
       </c>
-      <c r="AW26">
+      <c r="AW26" s="1">
         <v>0.42241399999999996</v>
       </c>
-      <c r="AX26">
+      <c r="AX26" s="1">
         <v>0.37931000000000004</v>
       </c>
     </row>
@@ -4380,7 +4392,7 @@
       <c r="Y27">
         <v>1</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="1">
         <v>1</v>
       </c>
       <c r="AA27">
@@ -4532,7 +4544,7 @@
       <c r="Y28">
         <v>1</v>
       </c>
-      <c r="Z28">
+      <c r="Z28" s="1">
         <v>1</v>
       </c>
       <c r="AA28">
@@ -4684,7 +4696,7 @@
       <c r="Y29">
         <v>1</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="1">
         <v>1</v>
       </c>
       <c r="AA29">
@@ -4836,7 +4848,7 @@
       <c r="Y30">
         <v>1</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="1">
         <v>1</v>
       </c>
       <c r="AA30">
@@ -4988,7 +5000,7 @@
       <c r="Y31">
         <v>1</v>
       </c>
-      <c r="Z31">
+      <c r="Z31" s="1">
         <v>1</v>
       </c>
       <c r="AA31">
@@ -5140,7 +5152,7 @@
       <c r="Y32">
         <v>1</v>
       </c>
-      <c r="Z32">
+      <c r="Z32" s="1">
         <v>1</v>
       </c>
       <c r="AA32">
@@ -5292,7 +5304,7 @@
       <c r="Y33">
         <v>1</v>
       </c>
-      <c r="Z33">
+      <c r="Z33" s="1">
         <v>1</v>
       </c>
       <c r="AA33">
@@ -5444,7 +5456,7 @@
       <c r="Y34">
         <v>1</v>
       </c>
-      <c r="Z34">
+      <c r="Z34" s="1">
         <v>1</v>
       </c>
       <c r="AA34">
@@ -5596,7 +5608,7 @@
       <c r="Y35">
         <v>0.96551699999999996</v>
       </c>
-      <c r="Z35">
+      <c r="Z35" s="1">
         <v>0.96551699999999996</v>
       </c>
       <c r="AA35">
@@ -5748,7 +5760,7 @@
       <c r="Y36">
         <v>0.956897</v>
       </c>
-      <c r="Z36">
+      <c r="Z36" s="1">
         <v>0.956897</v>
       </c>
       <c r="AA36">
@@ -5900,7 +5912,7 @@
       <c r="Y37">
         <v>0.91379299999999997</v>
       </c>
-      <c r="Z37">
+      <c r="Z37" s="1">
         <v>0.91379299999999997</v>
       </c>
       <c r="AA37">
@@ -6052,7 +6064,7 @@
       <c r="Y38">
         <v>0.87068999999999996</v>
       </c>
-      <c r="Z38">
+      <c r="Z38" s="1">
         <v>0.87068999999999996</v>
       </c>
       <c r="AA38">
@@ -6204,7 +6216,7 @@
       <c r="Y39">
         <v>0.83620700000000003</v>
       </c>
-      <c r="Z39">
+      <c r="Z39" s="1">
         <v>0.83620700000000003</v>
       </c>
       <c r="AA39">
@@ -6356,7 +6368,7 @@
       <c r="Y40">
         <v>0.81034499999999998</v>
       </c>
-      <c r="Z40">
+      <c r="Z40" s="1">
         <v>0.81034499999999998</v>
       </c>
       <c r="AA40">
@@ -6508,7 +6520,7 @@
       <c r="Y41">
         <v>0.78448300000000004</v>
       </c>
-      <c r="Z41">
+      <c r="Z41" s="1">
         <v>0.78448300000000004</v>
       </c>
       <c r="AA41">
@@ -6660,7 +6672,7 @@
       <c r="Y42">
         <v>0.73275899999999994</v>
       </c>
-      <c r="Z42">
+      <c r="Z42" s="1">
         <v>0.73275899999999994</v>
       </c>
       <c r="AA42">
@@ -6812,7 +6824,7 @@
       <c r="Y43">
         <v>0.68965500000000002</v>
       </c>
-      <c r="Z43">
+      <c r="Z43" s="1">
         <v>0.68965500000000002</v>
       </c>
       <c r="AA43">
@@ -6964,7 +6976,7 @@
       <c r="Y44">
         <v>0.63793100000000003</v>
       </c>
-      <c r="Z44">
+      <c r="Z44" s="1">
         <v>0.63793100000000003</v>
       </c>
       <c r="AA44">
@@ -7116,7 +7128,7 @@
       <c r="Y45">
         <v>0.58620699999999992</v>
       </c>
-      <c r="Z45">
+      <c r="Z45" s="1">
         <v>0.58620699999999992</v>
       </c>
       <c r="AA45">
@@ -7268,7 +7280,7 @@
       <c r="Y46">
         <v>0.543103</v>
       </c>
-      <c r="Z46">
+      <c r="Z46" s="1">
         <v>0.543103</v>
       </c>
       <c r="AA46">
@@ -7420,7 +7432,7 @@
       <c r="Y47">
         <v>0.5</v>
       </c>
-      <c r="Z47">
+      <c r="Z47" s="1">
         <v>0.5</v>
       </c>
       <c r="AA47">
@@ -7572,7 +7584,7 @@
       <c r="Y48">
         <v>0.456897</v>
       </c>
-      <c r="Z48">
+      <c r="Z48" s="1">
         <v>0.456897</v>
       </c>
       <c r="AA48">
@@ -7724,7 +7736,7 @@
       <c r="Y49">
         <v>0.38793100000000003</v>
       </c>
-      <c r="Z49">
+      <c r="Z49" s="1">
         <v>0.38793100000000003</v>
       </c>
       <c r="AA49">
@@ -7876,7 +7888,7 @@
       <c r="Y50">
         <v>0.33620700000000003</v>
       </c>
-      <c r="Z50">
+      <c r="Z50" s="1">
         <v>0.33620700000000003</v>
       </c>
       <c r="AA50">
